--- a/data/trans_orig/P16A03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C79A6CC-A6A7-4DF3-9F05-6FD60D9AED40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{186896BD-C1CB-48ED-8B4E-C4A6A8671F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{747C99A5-B580-4C8B-99C9-A14AE5EFB08C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6D6AC4F2-4CB9-4350-AA70-761686D24AAA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -80,1126 +80,1126 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,48%</t>
+    <t>4,97%</t>
   </si>
   <si>
     <t>7,65%</t>
   </si>
   <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
   </si>
   <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
   </si>
   <si>
     <t>96,07%</t>
   </si>
   <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
   </si>
   <si>
     <t>97,44%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>98,32%</t>
   </si>
   <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
+    <t>94,18%</t>
   </si>
   <si>
     <t>95,88%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A68B6CD-204A-4D9F-AA46-B31CFEFD04D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A6DC39-879A-4AAC-9647-3A18D703B8EC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2218,10 +2218,10 @@
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -2230,7 +2230,7 @@
         <v>48418</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>76</v>
@@ -2272,7 +2272,7 @@
         <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>1291</v>
@@ -2281,7 +2281,7 @@
         <v>1313932</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>84</v>
@@ -2355,13 +2355,13 @@
         <v>24804</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -2406,10 +2406,10 @@
         <v>917418</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>96</v>
@@ -2531,7 +2531,7 @@
         <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>247</v>
@@ -2540,7 +2540,7 @@
         <v>252963</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>109</v>
@@ -2558,7 +2558,7 @@
         <v>3144</v>
       </c>
       <c r="D20" s="7">
-        <v>3202248</v>
+        <v>3202249</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>111</v>
@@ -2579,19 +2579,19 @@
         <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>6263</v>
       </c>
       <c r="N20" s="7">
-        <v>6401759</v>
+        <v>6401760</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>117</v>
@@ -2609,7 +2609,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2639,7 +2639,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2674,7 +2674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0814F8F9-7268-43BE-80BE-5C6BAD702AF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE9A40D-C080-4067-A547-B1BEBA36FB97}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2804,7 +2804,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2813,13 +2813,13 @@
         <v>4094</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2828,13 +2828,13 @@
         <v>4906</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,10 +2849,10 @@
         <v>114137</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -2864,13 +2864,13 @@
         <v>107811</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>215</v>
@@ -2879,13 +2879,13 @@
         <v>221949</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2953,13 @@
         <v>4944</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -2968,13 +2968,13 @@
         <v>33317</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -2983,13 +2983,13 @@
         <v>38261</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,7 +3004,7 @@
         <v>580870</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>145</v>
@@ -3108,13 +3108,13 @@
         <v>11691</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -3123,10 +3123,10 @@
         <v>67300</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>157</v>
@@ -3138,13 +3138,13 @@
         <v>78991</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,7 +3159,7 @@
         <v>1006256</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>161</v>
@@ -3171,7 +3171,7 @@
         <v>875</v>
       </c>
       <c r="I11" s="7">
-        <v>960476</v>
+        <v>960475</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>163</v>
@@ -3180,7 +3180,7 @@
         <v>164</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="M11" s="7">
         <v>1800</v>
@@ -3189,13 +3189,13 @@
         <v>1966731</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,7 +3222,7 @@
         <v>936</v>
       </c>
       <c r="I12" s="7">
-        <v>1027776</v>
+        <v>1027775</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3263,13 +3263,13 @@
         <v>12578</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -3278,13 +3278,13 @@
         <v>47055</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -3293,13 +3293,13 @@
         <v>59633</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3314,13 @@
         <v>743960</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
         <v>661</v>
@@ -3329,13 +3329,13 @@
         <v>729228</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>1341</v>
@@ -3344,13 +3344,13 @@
         <v>1473188</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3418,13 @@
         <v>15530</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -3433,13 +3433,13 @@
         <v>61263</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -3448,13 +3448,13 @@
         <v>76793</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3469,13 @@
         <v>928409</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7">
         <v>943</v>
@@ -3484,13 +3484,13 @@
         <v>986435</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>1835</v>
@@ -3499,13 +3499,13 @@
         <v>1914845</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3573,13 @@
         <v>45556</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="H19" s="7">
         <v>195</v>
@@ -3588,13 +3588,13 @@
         <v>213030</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="M19" s="7">
         <v>235</v>
@@ -3606,10 +3606,10 @@
         <v>92</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3624,13 @@
         <v>3373632</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="H20" s="7">
         <v>3090</v>
@@ -3639,13 +3639,13 @@
         <v>3331064</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M20" s="7">
         <v>6252</v>
@@ -3657,10 +3657,10 @@
         <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,7 +3737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4211BBE3-82B6-4120-B0C8-D7CEF66EB6D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBD10DE-CB7B-4EC2-8B40-BCDCC9312D67}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3754,7 +3754,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3861,13 +3861,13 @@
         <v>2179</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3876,13 +3876,13 @@
         <v>3761</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>215</v>
+        <v>71</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3891,13 +3891,13 @@
         <v>5939</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,10 +3912,10 @@
         <v>114367</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -3927,13 +3927,13 @@
         <v>109599</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="M5" s="7">
         <v>222</v>
@@ -3942,13 +3942,13 @@
         <v>223967</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4016,13 @@
         <v>2830</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -4031,13 +4031,13 @@
         <v>30573</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>230</v>
+        <v>123</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -4046,13 +4046,13 @@
         <v>33403</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>158</v>
+        <v>235</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4067,13 @@
         <v>555424</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>522</v>
@@ -4082,13 +4082,13 @@
         <v>528906</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c r="M8" s="7">
         <v>1058</v>
@@ -4097,13 +4097,13 @@
         <v>1084330</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>166</v>
+        <v>243</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4171,13 @@
         <v>12137</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -4186,13 +4186,13 @@
         <v>32344</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>249</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -4201,13 +4201,13 @@
         <v>44482</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,13 +4222,13 @@
         <v>1010294</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H11" s="7">
         <v>947</v>
@@ -4237,13 +4237,13 @@
         <v>1010569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>256</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>1886</v>
@@ -4252,13 +4252,13 @@
         <v>2020862</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,13 +4326,13 @@
         <v>11694</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -4341,13 +4341,13 @@
         <v>30583</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>139</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -4356,13 +4356,13 @@
         <v>42277</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,13 +4377,13 @@
         <v>747858</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H14" s="7">
         <v>707</v>
@@ -4392,13 +4392,13 @@
         <v>754428</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>268</v>
+        <v>147</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M14" s="7">
         <v>1392</v>
@@ -4407,13 +4407,13 @@
         <v>1502286</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,13 +4481,13 @@
         <v>14503</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>277</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -4496,13 +4496,13 @@
         <v>49824</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -4511,13 +4511,13 @@
         <v>64327</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>277</v>
+        <v>208</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,13 +4532,13 @@
         <v>923064</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>193</v>
+        <v>285</v>
       </c>
       <c r="H17" s="7">
         <v>914</v>
@@ -4547,13 +4547,13 @@
         <v>993955</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M17" s="7">
         <v>1831</v>
@@ -4562,13 +4562,13 @@
         <v>1917019</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,13 +4636,13 @@
         <v>43343</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>186</v>
+        <v>291</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H19" s="7">
         <v>137</v>
@@ -4651,13 +4651,13 @@
         <v>147085</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M19" s="7">
         <v>180</v>
@@ -4666,13 +4666,13 @@
         <v>190428</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,13 +4687,13 @@
         <v>3351007</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>193</v>
+        <v>300</v>
       </c>
       <c r="H20" s="7">
         <v>3201</v>
@@ -4702,13 +4702,13 @@
         <v>3397457</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M20" s="7">
         <v>6389</v>
@@ -4717,13 +4717,13 @@
         <v>6748464</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,7 +4800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C70476F-B4F1-4ADA-B087-AB4CA371CB63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBB2C6B-A82B-4A09-B08B-44AD3F7D1467}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4817,7 +4817,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4924,13 +4924,13 @@
         <v>2729</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -4939,13 +4939,13 @@
         <v>8490</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -4954,13 +4954,13 @@
         <v>11220</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>309</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +4975,13 @@
         <v>99253</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H5" s="7">
         <v>222</v>
@@ -4990,13 +4990,13 @@
         <v>121886</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M5" s="7">
         <v>337</v>
@@ -5005,13 +5005,13 @@
         <v>221138</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>318</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,13 +5079,13 @@
         <v>15206</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>260</v>
+        <v>323</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>321</v>
+        <v>70</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>52</v>
@@ -5094,13 +5094,13 @@
         <v>23291</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>323</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -5109,13 +5109,13 @@
         <v>38497</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>327</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,13 +5130,13 @@
         <v>534096</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="H8" s="7">
         <v>944</v>
@@ -5145,13 +5145,13 @@
         <v>569671</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>46</v>
+        <v>332</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>330</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>1532</v>
@@ -5160,13 +5160,13 @@
         <v>1103767</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>334</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,13 +5234,13 @@
         <v>16456</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>334</v>
+        <v>188</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>278</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>82</v>
@@ -5249,13 +5249,13 @@
         <v>47345</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -5264,13 +5264,13 @@
         <v>63801</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>339</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,13 +5285,13 @@
         <v>1022792</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>342</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
         <v>1434</v>
@@ -5300,13 +5300,13 @@
         <v>1012129</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M11" s="7">
         <v>2377</v>
@@ -5315,13 +5315,13 @@
         <v>2034921</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>348</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,10 +5392,10 @@
         <v>349</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H13" s="7">
         <v>54</v>
@@ -5404,13 +5404,13 @@
         <v>34322</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>36</v>
+        <v>325</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -5419,13 +5419,13 @@
         <v>50907</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>354</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,7 +5446,7 @@
         <v>356</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>357</v>
+        <v>239</v>
       </c>
       <c r="H14" s="7">
         <v>992</v>
@@ -5455,13 +5455,13 @@
         <v>839424</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>46</v>
+        <v>332</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="M14" s="7">
         <v>1648</v>
@@ -5470,10 +5470,10 @@
         <v>1550540</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>359</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>360</v>
@@ -5577,10 +5577,10 @@
         <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>139</v>
+        <v>367</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,10 +5598,10 @@
         <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H17" s="7">
         <v>1439</v>
@@ -5610,13 +5610,13 @@
         <v>1064086</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M17" s="7">
         <v>2422</v>
@@ -5625,13 +5625,13 @@
         <v>2008922</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>149</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5699,13 @@
         <v>71542</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>185</v>
+        <v>378</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>376</v>
+        <v>278</v>
       </c>
       <c r="H19" s="7">
         <v>328</v>
@@ -5714,13 +5714,13 @@
         <v>195666</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>377</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M19" s="7">
         <v>417</v>
@@ -5729,13 +5729,13 @@
         <v>267209</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>379</v>
+        <v>122</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>380</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,16 +5747,16 @@
         <v>3285</v>
       </c>
       <c r="D20" s="7">
-        <v>3312094</v>
+        <v>3312095</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>382</v>
+        <v>284</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>191</v>
+        <v>383</v>
       </c>
       <c r="H20" s="7">
         <v>5031</v>
@@ -5765,13 +5765,13 @@
         <v>3607196</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>383</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>384</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>8316</v>
@@ -5780,13 +5780,13 @@
         <v>6919289</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,7 +5798,7 @@
         <v>3374</v>
       </c>
       <c r="D21" s="7">
-        <v>3383636</v>
+        <v>3383637</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A03-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{186896BD-C1CB-48ED-8B4E-C4A6A8671F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7EFFCAD-7520-4E0B-8CB6-E5F47A63E07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6D6AC4F2-4CB9-4350-AA70-761686D24AAA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A2C9F1C-BBAC-4A0F-B31B-7DA5F21D3121}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="395">
   <si>
     <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -80,1120 +80,1144 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
   </si>
   <si>
     <t>7,22%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>92,78%</t>
   </si>
   <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
+    <t>96,15%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
   </si>
   <si>
     <t>96,2%</t>
   </si>
   <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>95,55%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
   </si>
   <si>
     <t>95,88%</t>
@@ -1611,7 +1635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A6DC39-879A-4AAC-9647-3A18D703B8EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E438803E-0DAD-4628-B4A1-66D21D7D8422}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2230,13 +2254,13 @@
         <v>48418</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,13 +2275,13 @@
         <v>666841</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>659</v>
@@ -2266,13 +2290,13 @@
         <v>647091</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1291</v>
@@ -2281,13 +2305,13 @@
         <v>1313932</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,7 +2367,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2355,13 +2379,13 @@
         <v>24804</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -2370,13 +2394,13 @@
         <v>48610</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>76</v>
@@ -2385,13 +2409,13 @@
         <v>73415</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,13 +2430,13 @@
         <v>917418</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>949</v>
@@ -2421,13 +2445,13 @@
         <v>990002</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1915</v>
@@ -2436,13 +2460,13 @@
         <v>1907419</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2534,13 @@
         <v>73277</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>178</v>
@@ -2525,13 +2549,13 @@
         <v>179686</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>247</v>
@@ -2540,13 +2564,13 @@
         <v>252963</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,16 +2582,16 @@
         <v>3144</v>
       </c>
       <c r="D20" s="7">
-        <v>3202249</v>
+        <v>3202248</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>3119</v>
@@ -2576,13 +2600,13 @@
         <v>3199512</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>6263</v>
@@ -2591,13 +2615,13 @@
         <v>6401760</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,7 +2633,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2653,7 +2677,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2674,7 +2698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE9A40D-C080-4067-A547-B1BEBA36FB97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB12418-C2B8-420E-95C1-7C6048D2FE46}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2691,7 +2715,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2798,13 +2822,13 @@
         <v>813</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2813,13 +2837,13 @@
         <v>4094</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2828,13 +2852,13 @@
         <v>4906</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,10 +2873,10 @@
         <v>114137</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -2864,13 +2888,13 @@
         <v>107811</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>215</v>
@@ -2879,13 +2903,13 @@
         <v>221949</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2977,13 @@
         <v>4944</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -2968,13 +2992,13 @@
         <v>33317</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -2983,13 +3007,13 @@
         <v>38261</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +3028,13 @@
         <v>580870</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>516</v>
@@ -3019,13 +3043,13 @@
         <v>547115</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>1061</v>
@@ -3034,13 +3058,13 @@
         <v>1127984</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,10 +3135,10 @@
         <v>33</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -3123,13 +3147,13 @@
         <v>67300</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>72</v>
@@ -3138,13 +3162,13 @@
         <v>78991</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,10 +3186,10 @@
         <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>875</v>
@@ -3174,13 +3198,13 @@
         <v>960475</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>1800</v>
@@ -3189,13 +3213,13 @@
         <v>1966731</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3287,13 @@
         <v>12578</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -3278,13 +3302,13 @@
         <v>47055</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -3293,13 +3317,13 @@
         <v>59633</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3338,13 @@
         <v>743960</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>661</v>
@@ -3329,13 +3353,13 @@
         <v>729228</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>1341</v>
@@ -3344,13 +3368,13 @@
         <v>1473188</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,7 +3430,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3418,13 +3442,13 @@
         <v>15530</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -3433,13 +3457,13 @@
         <v>61263</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -3448,13 +3472,13 @@
         <v>76793</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3493,13 @@
         <v>928409</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7">
         <v>943</v>
@@ -3484,13 +3508,13 @@
         <v>986435</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M17" s="7">
         <v>1835</v>
@@ -3499,13 +3523,13 @@
         <v>1914845</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3597,13 @@
         <v>45556</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="H19" s="7">
         <v>195</v>
@@ -3588,13 +3612,13 @@
         <v>213030</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>235</v>
@@ -3603,13 +3627,13 @@
         <v>258585</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3648,13 @@
         <v>3373632</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="H20" s="7">
         <v>3090</v>
@@ -3639,28 +3663,28 @@
         <v>3331064</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M20" s="7">
         <v>6252</v>
       </c>
       <c r="N20" s="7">
-        <v>6704697</v>
+        <v>6704696</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,7 +3726,7 @@
         <v>6487</v>
       </c>
       <c r="N21" s="7">
-        <v>6963282</v>
+        <v>6963281</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3716,7 +3740,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3737,7 +3761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBD10DE-CB7B-4EC2-8B40-BCDCC9312D67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC165F5-A97B-4AC1-A499-AAC7C78BF7F1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3754,7 +3778,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3861,13 +3885,13 @@
         <v>2179</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3876,13 +3900,13 @@
         <v>3761</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3891,13 +3915,13 @@
         <v>5939</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,10 +3936,10 @@
         <v>114367</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -3927,13 +3951,13 @@
         <v>109599</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="M5" s="7">
         <v>222</v>
@@ -3942,13 +3966,13 @@
         <v>223967</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4040,13 @@
         <v>2830</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -4031,13 +4055,13 @@
         <v>30573</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -4046,13 +4070,13 @@
         <v>33403</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4091,13 @@
         <v>555424</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>522</v>
@@ -4082,13 +4106,13 @@
         <v>528906</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
         <v>1058</v>
@@ -4097,13 +4121,13 @@
         <v>1084330</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4195,13 @@
         <v>12137</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -4186,13 +4210,13 @@
         <v>32344</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>236</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -4201,13 +4225,13 @@
         <v>44482</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,13 +4246,13 @@
         <v>1010294</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="H11" s="7">
         <v>947</v>
@@ -4237,13 +4261,13 @@
         <v>1010569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="M11" s="7">
         <v>1886</v>
@@ -4252,13 +4276,13 @@
         <v>2020862</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>186</v>
+        <v>270</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,13 +4350,13 @@
         <v>11694</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -4341,13 +4365,13 @@
         <v>30583</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>139</v>
+        <v>277</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -4356,13 +4380,13 @@
         <v>42277</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,13 +4401,13 @@
         <v>747858</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>707</v>
@@ -4392,13 +4416,13 @@
         <v>754428</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>147</v>
+        <v>284</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>1392</v>
@@ -4407,13 +4431,13 @@
         <v>1502286</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>274</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,7 +4493,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4481,13 +4505,13 @@
         <v>14503</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>277</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>51</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -4496,13 +4520,13 @@
         <v>49824</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -4511,13 +4535,13 @@
         <v>64327</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>293</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,13 +4556,13 @@
         <v>923064</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>284</v>
+        <v>60</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>914</v>
@@ -4547,13 +4571,13 @@
         <v>993955</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>1831</v>
@@ -4562,13 +4586,13 @@
         <v>1917019</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>216</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,13 +4660,13 @@
         <v>43343</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="H19" s="7">
         <v>137</v>
@@ -4651,13 +4675,13 @@
         <v>147085</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="M19" s="7">
         <v>180</v>
@@ -4666,13 +4690,13 @@
         <v>190428</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>297</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,13 +4711,13 @@
         <v>3351007</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="H20" s="7">
         <v>3201</v>
@@ -4702,13 +4726,13 @@
         <v>3397457</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M20" s="7">
         <v>6389</v>
@@ -4717,13 +4741,13 @@
         <v>6748464</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>304</v>
+        <v>185</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,7 +4803,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4800,7 +4824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBB2C6B-A82B-4A09-B08B-44AD3F7D1467}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0B2D0C-0241-4FC9-8572-AE8AF587C025}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4817,7 +4841,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4924,13 +4948,13 @@
         <v>2729</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -4939,13 +4963,13 @@
         <v>8490</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>311</v>
+        <v>74</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -4954,13 +4978,13 @@
         <v>11220</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +4999,13 @@
         <v>99253</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="H5" s="7">
         <v>222</v>
@@ -4990,13 +5014,13 @@
         <v>121886</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>320</v>
+        <v>84</v>
       </c>
       <c r="M5" s="7">
         <v>337</v>
@@ -5005,13 +5029,13 @@
         <v>221138</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>328</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,13 +5103,13 @@
         <v>15206</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>70</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H7" s="7">
         <v>52</v>
@@ -5094,13 +5118,13 @@
         <v>23291</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>326</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -5109,13 +5133,13 @@
         <v>38497</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,13 +5154,13 @@
         <v>534096</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" s="7">
         <v>944</v>
@@ -5145,13 +5169,13 @@
         <v>569671</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>333</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="M8" s="7">
         <v>1532</v>
@@ -5160,13 +5184,13 @@
         <v>1103767</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,10 +5258,10 @@
         <v>16456</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>344</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>51</v>
@@ -5249,13 +5273,13 @@
         <v>47345</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -5264,13 +5288,13 @@
         <v>63801</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,13 +5309,13 @@
         <v>1022792</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>197</v>
+        <v>351</v>
       </c>
       <c r="H11" s="7">
         <v>1434</v>
@@ -5300,13 +5324,13 @@
         <v>1012129</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="M11" s="7">
         <v>2377</v>
@@ -5315,10 +5339,10 @@
         <v>2034921</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>60</v>
@@ -5389,13 +5413,13 @@
         <v>16585</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>349</v>
+        <v>18</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>232</v>
+        <v>357</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="H13" s="7">
         <v>54</v>
@@ -5404,13 +5428,13 @@
         <v>34322</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -5419,13 +5443,13 @@
         <v>50907</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>353</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,13 +5464,13 @@
         <v>711116</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>355</v>
+        <v>29</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="H14" s="7">
         <v>992</v>
@@ -5455,13 +5479,13 @@
         <v>839424</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="M14" s="7">
         <v>1648</v>
@@ -5470,13 +5494,13 @@
         <v>1550540</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>359</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,7 +5556,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5547,10 +5571,10 @@
         <v>32</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="H16" s="7">
         <v>120</v>
@@ -5559,13 +5583,13 @@
         <v>82217</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="M16" s="7">
         <v>143</v>
@@ -5574,13 +5598,13 @@
         <v>102784</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,10 +5622,10 @@
         <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H17" s="7">
         <v>1439</v>
@@ -5610,13 +5634,13 @@
         <v>1064086</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="M17" s="7">
         <v>2422</v>
@@ -5625,13 +5649,13 @@
         <v>2008922</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5723,13 @@
         <v>71542</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>378</v>
+        <v>304</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H19" s="7">
         <v>328</v>
@@ -5714,13 +5738,13 @@
         <v>195666</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>384</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>385</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="M19" s="7">
         <v>417</v>
@@ -5729,13 +5753,13 @@
         <v>267209</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,13 +5774,13 @@
         <v>3312095</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>383</v>
+        <v>309</v>
       </c>
       <c r="H20" s="7">
         <v>5031</v>
@@ -5765,13 +5789,13 @@
         <v>3607196</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>390</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>392</v>
       </c>
       <c r="M20" s="7">
         <v>8316</v>
@@ -5780,13 +5804,13 @@
         <v>6919289</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,7 +5866,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7EFFCAD-7520-4E0B-8CB6-E5F47A63E07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A377A77D-43EE-4B27-A5B6-30C8C017F4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A2C9F1C-BBAC-4A0F-B31B-7DA5F21D3121}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F4AD5381-1754-402B-9478-A16D05FF6AFA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="387">
   <si>
     <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,89%</t>
@@ -80,1150 +80,1126 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,49%</t>
+    <t>4,48%</t>
   </si>
   <si>
     <t>7,65%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
   </si>
   <si>
     <t>96,67%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
   </si>
   <si>
     <t>96,28%</t>
   </si>
   <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
     <t>95,88%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E438803E-0DAD-4628-B4A1-66D21D7D8422}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BF32C6-EB56-44C0-B8EC-2EBB66E62F9B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2242,10 +2218,10 @@
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -2254,13 +2230,13 @@
         <v>48418</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,13 +2251,13 @@
         <v>666841</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>659</v>
@@ -2290,13 +2266,13 @@
         <v>647091</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="M14" s="7">
         <v>1291</v>
@@ -2305,13 +2281,13 @@
         <v>1313932</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,7 +2343,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2379,13 +2355,13 @@
         <v>24804</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -2394,13 +2370,13 @@
         <v>48610</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>76</v>
@@ -2409,13 +2385,13 @@
         <v>73415</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,13 +2406,13 @@
         <v>917418</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>949</v>
@@ -2445,13 +2421,13 @@
         <v>990002</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>1915</v>
@@ -2460,13 +2436,13 @@
         <v>1907419</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2510,13 @@
         <v>73277</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>178</v>
@@ -2549,13 +2525,13 @@
         <v>179686</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="M19" s="7">
         <v>247</v>
@@ -2564,13 +2540,13 @@
         <v>252963</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,13 +2561,13 @@
         <v>3202248</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>3119</v>
@@ -2600,28 +2576,28 @@
         <v>3199512</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>6263</v>
       </c>
       <c r="N20" s="7">
-        <v>6401760</v>
+        <v>6401759</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,7 +2639,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2677,7 +2653,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +2674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB12418-C2B8-420E-95C1-7C6048D2FE46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AB17E3-E672-4310-B597-D5517F035761}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2715,7 +2691,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2822,13 +2798,13 @@
         <v>813</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2837,13 +2813,13 @@
         <v>4094</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2852,13 +2828,13 @@
         <v>4906</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,10 +2849,10 @@
         <v>114137</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -2888,13 +2864,13 @@
         <v>107811</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>215</v>
@@ -2903,13 +2879,13 @@
         <v>221949</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,13 +2953,13 @@
         <v>4944</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -2992,13 +2968,13 @@
         <v>33317</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -3007,13 +2983,13 @@
         <v>38261</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3004,13 @@
         <v>580870</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>516</v>
@@ -3043,13 +3019,13 @@
         <v>547115</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>1061</v>
@@ -3058,13 +3034,13 @@
         <v>1127984</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,13 +3108,13 @@
         <v>11691</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -3147,13 +3123,13 @@
         <v>67300</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="M10" s="7">
         <v>72</v>
@@ -3162,13 +3138,13 @@
         <v>78991</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,28 +3159,28 @@
         <v>1006256</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H11" s="7">
         <v>875</v>
       </c>
       <c r="I11" s="7">
-        <v>960475</v>
+        <v>960476</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c r="M11" s="7">
         <v>1800</v>
@@ -3213,13 +3189,13 @@
         <v>1966731</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,7 +3222,7 @@
         <v>936</v>
       </c>
       <c r="I12" s="7">
-        <v>1027775</v>
+        <v>1027776</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3287,13 +3263,13 @@
         <v>12578</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -3302,13 +3278,13 @@
         <v>47055</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -3317,13 +3293,13 @@
         <v>59633</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3314,13 @@
         <v>743960</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>661</v>
@@ -3353,13 +3329,13 @@
         <v>729228</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>1341</v>
@@ -3368,13 +3344,13 @@
         <v>1473188</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,7 +3406,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3442,13 +3418,13 @@
         <v>15530</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -3457,13 +3433,13 @@
         <v>61263</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -3472,13 +3448,13 @@
         <v>76793</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3469,13 @@
         <v>928409</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H17" s="7">
         <v>943</v>
@@ -3508,13 +3484,13 @@
         <v>986435</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="M17" s="7">
         <v>1835</v>
@@ -3523,13 +3499,13 @@
         <v>1914845</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3573,13 @@
         <v>45556</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="H19" s="7">
         <v>195</v>
@@ -3612,13 +3588,13 @@
         <v>213030</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="M19" s="7">
         <v>235</v>
@@ -3627,13 +3603,13 @@
         <v>258585</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3624,13 @@
         <v>3373632</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>217</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>3090</v>
@@ -3663,28 +3639,28 @@
         <v>3331064</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="M20" s="7">
         <v>6252</v>
       </c>
       <c r="N20" s="7">
-        <v>6704696</v>
+        <v>6704697</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,7 +3702,7 @@
         <v>6487</v>
       </c>
       <c r="N21" s="7">
-        <v>6963281</v>
+        <v>6963282</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3740,7 +3716,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3761,7 +3737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC165F5-A97B-4AC1-A499-AAC7C78BF7F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864D642E-3F7E-4D6E-87ED-88025D72A3C6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3778,7 +3754,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3885,13 +3861,13 @@
         <v>2179</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3900,13 +3876,13 @@
         <v>3761</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3915,13 +3891,13 @@
         <v>5939</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,10 +3912,10 @@
         <v>114367</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -3951,13 +3927,13 @@
         <v>109599</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="M5" s="7">
         <v>222</v>
@@ -3966,13 +3942,13 @@
         <v>223967</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4016,13 @@
         <v>2830</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -4055,13 +4031,13 @@
         <v>30573</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>129</v>
+        <v>230</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -4070,13 +4046,13 @@
         <v>33403</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>245</v>
+        <v>158</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4067,13 @@
         <v>555424</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="H8" s="7">
         <v>522</v>
@@ -4106,13 +4082,13 @@
         <v>528906</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
         <v>1058</v>
@@ -4121,13 +4097,13 @@
         <v>1084330</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>166</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4171,13 @@
         <v>12137</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -4210,13 +4186,13 @@
         <v>32344</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>58</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>245</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -4225,13 +4201,13 @@
         <v>44482</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4222,13 @@
         <v>1010294</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="H11" s="7">
         <v>947</v>
@@ -4261,13 +4237,13 @@
         <v>1010569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="M11" s="7">
         <v>1886</v>
@@ -4276,13 +4252,13 @@
         <v>2020862</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,13 +4326,13 @@
         <v>11694</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -4365,13 +4341,13 @@
         <v>30583</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -4380,13 +4356,13 @@
         <v>42277</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,13 +4377,13 @@
         <v>747858</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="H14" s="7">
         <v>707</v>
@@ -4416,13 +4392,13 @@
         <v>754428</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="M14" s="7">
         <v>1392</v>
@@ -4431,13 +4407,13 @@
         <v>1502286</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,7 +4469,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4505,13 +4481,13 @@
         <v>14503</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>51</v>
+        <v>273</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -4520,13 +4496,13 @@
         <v>49824</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -4535,13 +4511,13 @@
         <v>64327</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,13 +4532,13 @@
         <v>923064</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>60</v>
+        <v>281</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="H17" s="7">
         <v>914</v>
@@ -4571,13 +4547,13 @@
         <v>993955</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="M17" s="7">
         <v>1831</v>
@@ -4586,13 +4562,13 @@
         <v>1917019</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,13 +4636,13 @@
         <v>43343</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>303</v>
+        <v>186</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="H19" s="7">
         <v>137</v>
@@ -4675,13 +4651,13 @@
         <v>147085</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="M19" s="7">
         <v>180</v>
@@ -4690,13 +4666,13 @@
         <v>190428</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>179</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,13 +4687,13 @@
         <v>3351007</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>310</v>
+        <v>193</v>
       </c>
       <c r="H20" s="7">
         <v>3201</v>
@@ -4726,13 +4702,13 @@
         <v>3397457</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M20" s="7">
         <v>6389</v>
@@ -4741,13 +4717,13 @@
         <v>6748464</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,7 +4779,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4824,7 +4800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0B2D0C-0241-4FC9-8572-AE8AF587C025}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C247AB0-27C0-423C-B753-F8ECB266D5A3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4841,7 +4817,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4948,13 +4924,13 @@
         <v>2729</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -4963,13 +4939,13 @@
         <v>8490</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>74</v>
+        <v>307</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -4978,13 +4954,13 @@
         <v>11220</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,13 +4975,13 @@
         <v>99253</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="H5" s="7">
         <v>222</v>
@@ -5014,13 +4990,13 @@
         <v>121886</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="M5" s="7">
         <v>337</v>
@@ -5029,13 +5005,13 @@
         <v>221138</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,13 +5079,13 @@
         <v>15206</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>331</v>
+        <v>260</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="H7" s="7">
         <v>52</v>
@@ -5118,13 +5094,13 @@
         <v>23291</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>333</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>96</v>
+        <v>323</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>324</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -5133,13 +5109,13 @@
         <v>38497</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>334</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5130,13 @@
         <v>534096</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="H8" s="7">
         <v>944</v>
@@ -5169,13 +5145,13 @@
         <v>569671</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>339</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>329</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>106</v>
+        <v>330</v>
       </c>
       <c r="M8" s="7">
         <v>1532</v>
@@ -5184,13 +5160,13 @@
         <v>1103767</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>340</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,13 +5234,13 @@
         <v>16456</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="H10" s="7">
         <v>82</v>
@@ -5273,13 +5249,13 @@
         <v>47345</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -5288,13 +5264,13 @@
         <v>63801</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>339</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,13 +5285,13 @@
         <v>1022792</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>287</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H11" s="7">
         <v>1434</v>
@@ -5324,13 +5300,13 @@
         <v>1012129</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="M11" s="7">
         <v>2377</v>
@@ -5339,13 +5315,13 @@
         <v>2034921</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,13 +5389,13 @@
         <v>16585</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>18</v>
+        <v>349</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="H13" s="7">
         <v>54</v>
@@ -5428,13 +5404,13 @@
         <v>34322</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>333</v>
+        <v>36</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -5443,13 +5419,13 @@
         <v>50907</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>352</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>305</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,13 +5440,13 @@
         <v>711116</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>355</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H14" s="7">
         <v>992</v>
@@ -5479,13 +5455,13 @@
         <v>839424</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>339</v>
+        <v>46</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
         <v>1648</v>
@@ -5494,13 +5470,13 @@
         <v>1550540</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>358</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>311</v>
+        <v>359</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,7 +5532,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5571,10 +5547,10 @@
         <v>32</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
         <v>120</v>
@@ -5583,13 +5559,13 @@
         <v>82217</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>143</v>
@@ -5598,13 +5574,13 @@
         <v>102784</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>373</v>
+        <v>139</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,10 +5598,10 @@
         <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H17" s="7">
         <v>1439</v>
@@ -5634,13 +5610,13 @@
         <v>1064086</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="M17" s="7">
         <v>2422</v>
@@ -5649,13 +5625,13 @@
         <v>2008922</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>382</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,13 +5699,13 @@
         <v>71542</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>304</v>
+        <v>185</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>274</v>
+        <v>376</v>
       </c>
       <c r="H19" s="7">
         <v>328</v>
@@ -5738,13 +5714,13 @@
         <v>195666</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>385</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="M19" s="7">
         <v>417</v>
@@ -5753,13 +5729,13 @@
         <v>267209</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>379</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>387</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5771,16 +5747,16 @@
         <v>3285</v>
       </c>
       <c r="D20" s="7">
-        <v>3312095</v>
+        <v>3312094</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>281</v>
+        <v>382</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>309</v>
+        <v>191</v>
       </c>
       <c r="H20" s="7">
         <v>5031</v>
@@ -5789,13 +5765,13 @@
         <v>3607196</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>392</v>
+        <v>133</v>
       </c>
       <c r="M20" s="7">
         <v>8316</v>
@@ -5804,13 +5780,13 @@
         <v>6919289</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>385</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>394</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5822,7 +5798,7 @@
         <v>3374</v>
       </c>
       <c r="D21" s="7">
-        <v>3383637</v>
+        <v>3383636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5866,7 +5842,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A377A77D-43EE-4B27-A5B6-30C8C017F4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D662B5DC-9E09-47C8-B0A4-36F428C97504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F4AD5381-1754-402B-9478-A16D05FF6AFA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9702885B-F455-4F5D-B4D8-BF49D6A0AD80}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="322">
   <si>
     <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,1138 +68,943 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
   </si>
   <si>
     <t>96,38%</t>
   </si>
   <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>96,68%</t>
   </si>
   <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
   </si>
 </sst>
 </file>
@@ -1611,8 +1416,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BF32C6-EB56-44C0-B8EC-2EBB66E62F9B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AA4ED2-C54B-4497-AD6F-D01CB02568B8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1729,10 +1534,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>1022</v>
+        <v>13314</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1744,10 +1549,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="I4" s="7">
-        <v>8623</v>
+        <v>40991</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1759,10 +1564,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="N4" s="7">
-        <v>9644</v>
+        <v>54305</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1780,10 +1585,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>104</v>
+        <v>669</v>
       </c>
       <c r="D5" s="7">
-        <v>114336</v>
+        <v>679680</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1795,10 +1600,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>118</v>
+        <v>654</v>
       </c>
       <c r="I5" s="7">
-        <v>104132</v>
+        <v>647360</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1810,10 +1615,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>222</v>
+        <v>1323</v>
       </c>
       <c r="N5" s="7">
-        <v>218469</v>
+        <v>1327040</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1831,10 +1636,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>682</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>692994</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1846,10 +1651,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1861,10 +1666,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381345</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1884,10 +1689,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>12293</v>
+        <v>23491</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1899,10 +1704,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="I7" s="7">
-        <v>32368</v>
+        <v>53334</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1914,10 +1719,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="N7" s="7">
-        <v>44661</v>
+        <v>76825</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1935,10 +1740,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>565</v>
+        <v>877</v>
       </c>
       <c r="D8" s="7">
-        <v>565343</v>
+        <v>938309</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1950,10 +1755,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>536</v>
+        <v>857</v>
       </c>
       <c r="I8" s="7">
-        <v>543228</v>
+        <v>915059</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1965,10 +1770,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1101</v>
+        <v>1734</v>
       </c>
       <c r="N8" s="7">
-        <v>1108571</v>
+        <v>1853368</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1986,10 +1791,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>577</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>577636</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2001,10 +1806,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2016,10 +1821,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1153232</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2039,10 +1844,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>23491</v>
+        <v>11668</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2054,34 +1859,34 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I10" s="7">
-        <v>53334</v>
+        <v>36750</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>46</v>
+      </c>
+      <c r="N10" s="7">
+        <v>48418</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>70</v>
-      </c>
-      <c r="N10" s="7">
-        <v>76825</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,49 +1895,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>877</v>
+        <v>632</v>
       </c>
       <c r="D11" s="7">
-        <v>938309</v>
+        <v>666841</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>659</v>
+      </c>
+      <c r="I11" s="7">
+        <v>647091</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>857</v>
-      </c>
-      <c r="I11" s="7">
-        <v>915059</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1291</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1313932</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>1734</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1853368</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,10 +1946,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2156,10 +1961,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2171,10 +1976,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2188,55 +1993,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>11668</v>
+        <v>24804</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>48</v>
+      </c>
+      <c r="I13" s="7">
+        <v>48610</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>37</v>
-      </c>
-      <c r="I13" s="7">
-        <v>36750</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>76</v>
+      </c>
+      <c r="N13" s="7">
+        <v>73415</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M13" s="7">
-        <v>46</v>
-      </c>
-      <c r="N13" s="7">
-        <v>48418</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,40 +2050,40 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>632</v>
+        <v>966</v>
       </c>
       <c r="D14" s="7">
-        <v>666841</v>
+        <v>917418</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>949</v>
+      </c>
+      <c r="I14" s="7">
+        <v>990002</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>659</v>
-      </c>
-      <c r="I14" s="7">
-        <v>647091</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="M14" s="7">
-        <v>1291</v>
+        <v>1915</v>
       </c>
       <c r="N14" s="7">
-        <v>1313932</v>
+        <v>1907419</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -2296,10 +2101,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2311,10 +2116,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2326,10 +2131,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2343,31 +2148,31 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D16" s="7">
-        <v>24804</v>
+        <v>73277</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="H16" s="7">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="I16" s="7">
-        <v>48610</v>
+        <v>179686</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>89</v>
@@ -2376,22 +2181,22 @@
         <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" s="7">
+        <v>247</v>
+      </c>
+      <c r="N16" s="7">
+        <v>252963</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M16" s="7">
-        <v>76</v>
-      </c>
-      <c r="N16" s="7">
-        <v>73415</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,49 +2205,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>966</v>
+        <v>3144</v>
       </c>
       <c r="D17" s="7">
-        <v>917418</v>
+        <v>3202248</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H17" s="7">
-        <v>949</v>
+        <v>3119</v>
       </c>
       <c r="I17" s="7">
-        <v>990002</v>
+        <v>3199511</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6263</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6401759</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="M17" s="7">
-        <v>1915</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1907419</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,10 +2256,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3275525</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2466,10 +2271,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2481,10 +2286,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6510</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6654722</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2497,171 +2302,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>69</v>
-      </c>
-      <c r="D19" s="7">
-        <v>73277</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>178</v>
-      </c>
-      <c r="I19" s="7">
-        <v>179686</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M19" s="7">
-        <v>247</v>
-      </c>
-      <c r="N19" s="7">
-        <v>252963</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3144</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3202248</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3119</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3199512</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6263</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6401759</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275525</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6510</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6654722</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2674,8 +2323,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AB17E3-E672-4310-B597-D5517F035761}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FBD4AB-F346-4D08-BDA7-AD8C6827BAC1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2691,7 +2340,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2792,49 +2441,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>813</v>
+        <v>5757</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="I4" s="7">
-        <v>4094</v>
+        <v>37411</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="N4" s="7">
-        <v>4906</v>
+        <v>43167</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,49 +2492,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>120</v>
+        <v>665</v>
       </c>
       <c r="D5" s="7">
-        <v>114137</v>
+        <v>695007</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="H5" s="7">
-        <v>95</v>
+        <v>611</v>
       </c>
       <c r="I5" s="7">
-        <v>107811</v>
+        <v>654926</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="M5" s="7">
-        <v>215</v>
+        <v>1276</v>
       </c>
       <c r="N5" s="7">
-        <v>221949</v>
+        <v>1349933</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,10 +2543,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>121</v>
+        <v>671</v>
       </c>
       <c r="D6" s="7">
-        <v>114950</v>
+        <v>700764</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2909,10 +2558,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>646</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>692337</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2924,10 +2573,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>220</v>
+        <v>1317</v>
       </c>
       <c r="N6" s="7">
-        <v>226855</v>
+        <v>1393100</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2947,49 +2596,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>4944</v>
+        <v>11691</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="H7" s="7">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I7" s="7">
-        <v>33317</v>
+        <v>67300</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="M7" s="7">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="N7" s="7">
-        <v>38261</v>
+        <v>78991</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,49 +2647,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>545</v>
+        <v>925</v>
       </c>
       <c r="D8" s="7">
-        <v>580870</v>
+        <v>1006256</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="H8" s="7">
-        <v>516</v>
+        <v>875</v>
       </c>
       <c r="I8" s="7">
-        <v>547115</v>
+        <v>960475</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
-        <v>1061</v>
+        <v>1800</v>
       </c>
       <c r="N8" s="7">
-        <v>1127984</v>
+        <v>1966732</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,10 +2698,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>550</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>585814</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3064,10 +2713,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>547</v>
+        <v>936</v>
       </c>
       <c r="I9" s="7">
-        <v>580432</v>
+        <v>1027775</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3079,10 +2728,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1097</v>
+        <v>1872</v>
       </c>
       <c r="N9" s="7">
-        <v>1166245</v>
+        <v>2045723</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3102,49 +2751,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>11691</v>
+        <v>12578</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="H10" s="7">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="I10" s="7">
-        <v>67300</v>
+        <v>47055</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="M10" s="7">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="N10" s="7">
-        <v>78991</v>
+        <v>59633</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,49 +2802,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>925</v>
+        <v>680</v>
       </c>
       <c r="D11" s="7">
-        <v>1006256</v>
+        <v>743960</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="H11" s="7">
-        <v>875</v>
+        <v>661</v>
       </c>
       <c r="I11" s="7">
-        <v>960476</v>
+        <v>729228</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="M11" s="7">
-        <v>1800</v>
+        <v>1341</v>
       </c>
       <c r="N11" s="7">
-        <v>1966731</v>
+        <v>1473188</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,10 +2853,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>688</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>756538</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3219,10 +2868,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>936</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1027776</v>
+        <v>776283</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3234,10 +2883,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1872</v>
+        <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>2045722</v>
+        <v>1532821</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3251,55 +2900,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>12578</v>
+        <v>15530</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="H13" s="7">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I13" s="7">
-        <v>47055</v>
+        <v>61263</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="M13" s="7">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N13" s="7">
-        <v>59633</v>
+        <v>76793</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,49 +2957,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>680</v>
+        <v>892</v>
       </c>
       <c r="D14" s="7">
-        <v>743960</v>
+        <v>928409</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="H14" s="7">
-        <v>661</v>
+        <v>943</v>
       </c>
       <c r="I14" s="7">
-        <v>729228</v>
+        <v>986435</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="M14" s="7">
-        <v>1341</v>
+        <v>1835</v>
       </c>
       <c r="N14" s="7">
-        <v>1473188</v>
+        <v>1914844</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,10 +3008,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>688</v>
+        <v>907</v>
       </c>
       <c r="D15" s="7">
-        <v>756538</v>
+        <v>943939</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3374,10 +3023,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>999</v>
       </c>
       <c r="I15" s="7">
-        <v>776283</v>
+        <v>1047698</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3389,10 +3038,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1392</v>
+        <v>1906</v>
       </c>
       <c r="N15" s="7">
-        <v>1532821</v>
+        <v>1991637</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3406,55 +3055,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D16" s="7">
-        <v>15530</v>
+        <v>45556</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="H16" s="7">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="I16" s="7">
-        <v>61263</v>
+        <v>213030</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="M16" s="7">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="N16" s="7">
-        <v>76793</v>
+        <v>258585</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,49 +3112,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>892</v>
+        <v>3162</v>
       </c>
       <c r="D17" s="7">
-        <v>928409</v>
+        <v>3373632</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="H17" s="7">
-        <v>943</v>
+        <v>3090</v>
       </c>
       <c r="I17" s="7">
-        <v>986435</v>
+        <v>3331064</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="M17" s="7">
-        <v>1835</v>
+        <v>6252</v>
       </c>
       <c r="N17" s="7">
-        <v>1914845</v>
+        <v>6704697</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,10 +3163,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>907</v>
+        <v>3202</v>
       </c>
       <c r="D18" s="7">
-        <v>943939</v>
+        <v>3419188</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3529,10 +3178,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>999</v>
+        <v>3285</v>
       </c>
       <c r="I18" s="7">
-        <v>1047698</v>
+        <v>3544094</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3544,10 +3193,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1906</v>
+        <v>6487</v>
       </c>
       <c r="N18" s="7">
-        <v>1991638</v>
+        <v>6963282</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3560,171 +3209,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>40</v>
-      </c>
-      <c r="D19" s="7">
-        <v>45556</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H19" s="7">
-        <v>195</v>
-      </c>
-      <c r="I19" s="7">
-        <v>213030</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M19" s="7">
-        <v>235</v>
-      </c>
-      <c r="N19" s="7">
-        <v>258585</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3162</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3373632</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3090</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3331064</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6252</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6704697</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3202</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3419188</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3285</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544094</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6487</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6963282</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3737,8 +3230,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864D642E-3F7E-4D6E-87ED-88025D72A3C6}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B437D9D-E4F9-48CC-8BB3-533918A6384D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3754,7 +3247,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3855,49 +3348,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>2179</v>
+        <v>5009</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="I4" s="7">
-        <v>3761</v>
+        <v>34334</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="N4" s="7">
-        <v>5939</v>
+        <v>39343</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,49 +3399,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>111</v>
+        <v>647</v>
       </c>
       <c r="D5" s="7">
-        <v>114367</v>
+        <v>669791</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="H5" s="7">
-        <v>111</v>
+        <v>633</v>
       </c>
       <c r="I5" s="7">
-        <v>109599</v>
+        <v>638505</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="M5" s="7">
-        <v>222</v>
+        <v>1280</v>
       </c>
       <c r="N5" s="7">
-        <v>223967</v>
+        <v>1308296</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,10 +3450,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3972,10 +3465,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3987,10 +3480,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4010,49 +3503,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>2830</v>
+        <v>12137</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="H7" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I7" s="7">
-        <v>30573</v>
+        <v>32344</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>229</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N7" s="7">
-        <v>33403</v>
+        <v>44482</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,49 +3554,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>536</v>
+        <v>939</v>
       </c>
       <c r="D8" s="7">
-        <v>555424</v>
+        <v>1010294</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="H8" s="7">
-        <v>522</v>
+        <v>947</v>
       </c>
       <c r="I8" s="7">
-        <v>528906</v>
+        <v>1010569</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
-        <v>1058</v>
+        <v>1886</v>
       </c>
       <c r="N8" s="7">
-        <v>1084330</v>
+        <v>2020862</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>241</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,10 +3605,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4127,10 +3620,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4142,10 +3635,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4165,49 +3658,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>12137</v>
+        <v>11694</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="H10" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" s="7">
-        <v>32344</v>
+        <v>30583</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>218</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="M10" s="7">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N10" s="7">
-        <v>44482</v>
+        <v>42277</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,49 +3709,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>939</v>
+        <v>685</v>
       </c>
       <c r="D11" s="7">
-        <v>1010294</v>
+        <v>747858</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="H11" s="7">
-        <v>947</v>
+        <v>707</v>
       </c>
       <c r="I11" s="7">
-        <v>1010569</v>
+        <v>754428</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>227</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="M11" s="7">
-        <v>1886</v>
+        <v>1392</v>
       </c>
       <c r="N11" s="7">
-        <v>2020862</v>
+        <v>1502286</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,10 +3760,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4282,10 +3775,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4297,10 +3790,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4314,55 +3807,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>11694</v>
+        <v>14503</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>257</v>
+        <v>155</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I13" s="7">
-        <v>30583</v>
+        <v>49824</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N13" s="7">
-        <v>42277</v>
+        <v>64327</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>262</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,49 +3864,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>685</v>
+        <v>917</v>
       </c>
       <c r="D14" s="7">
-        <v>747858</v>
+        <v>923064</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>266</v>
+        <v>162</v>
       </c>
       <c r="H14" s="7">
-        <v>707</v>
+        <v>914</v>
       </c>
       <c r="I14" s="7">
-        <v>754428</v>
+        <v>993955</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="M14" s="7">
-        <v>1392</v>
+        <v>1831</v>
       </c>
       <c r="N14" s="7">
-        <v>1502286</v>
+        <v>1917019</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>42</v>
+        <v>245</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,10 +3915,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4437,10 +3930,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4452,10 +3945,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4469,55 +3962,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7">
-        <v>14503</v>
+        <v>43343</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>273</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="I16" s="7">
-        <v>49824</v>
+        <v>147085</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N16" s="7">
-        <v>64327</v>
+        <v>190428</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,49 +4019,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>917</v>
+        <v>3188</v>
       </c>
       <c r="D17" s="7">
-        <v>923064</v>
+        <v>3351007</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>281</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="H17" s="7">
-        <v>914</v>
+        <v>3201</v>
       </c>
       <c r="I17" s="7">
-        <v>993955</v>
+        <v>3397457</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
-        <v>1831</v>
+        <v>6389</v>
       </c>
       <c r="N17" s="7">
-        <v>1917019</v>
+        <v>6748464</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,10 +4070,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4592,10 +4085,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4607,10 +4100,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4623,171 +4116,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>43</v>
-      </c>
-      <c r="D19" s="7">
-        <v>43343</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H19" s="7">
-        <v>137</v>
-      </c>
-      <c r="I19" s="7">
-        <v>147085</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="M19" s="7">
-        <v>180</v>
-      </c>
-      <c r="N19" s="7">
-        <v>190428</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3188</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3351007</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3201</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3397457</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6389</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6748464</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4800,8 +4137,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C247AB0-27C0-423C-B753-F8ECB266D5A3}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48A5CE-CB6F-4A67-914F-11A0E87AC853}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4817,7 +4154,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4918,49 +4255,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>2729</v>
+        <v>17416</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>303</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="H4" s="7">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="I4" s="7">
-        <v>8490</v>
+        <v>29974</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>307</v>
+        <v>187</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="M4" s="7">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N4" s="7">
-        <v>11220</v>
+        <v>47390</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>309</v>
+        <v>223</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,49 +4306,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>115</v>
+        <v>703</v>
       </c>
       <c r="D5" s="7">
-        <v>99253</v>
+        <v>617535</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>312</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="H5" s="7">
-        <v>222</v>
+        <v>1166</v>
       </c>
       <c r="I5" s="7">
-        <v>121886</v>
+        <v>645448</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>317</v>
+        <v>197</v>
       </c>
       <c r="M5" s="7">
-        <v>337</v>
+        <v>1869</v>
       </c>
       <c r="N5" s="7">
-        <v>221138</v>
+        <v>1262983</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>318</v>
+        <v>231</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,10 +4357,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>634951</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5035,10 +4372,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>242</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130376</v>
+        <v>675422</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5050,10 +4387,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1967</v>
       </c>
       <c r="N6" s="7">
-        <v>232358</v>
+        <v>1310373</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5073,49 +4410,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>15206</v>
+        <v>15853</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>260</v>
+        <v>166</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>322</v>
+        <v>190</v>
       </c>
       <c r="H7" s="7">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="I7" s="7">
-        <v>23291</v>
+        <v>44037</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>273</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="M7" s="7">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="N7" s="7">
-        <v>38497</v>
+        <v>59890</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>276</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>326</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,49 +4461,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>588</v>
+        <v>943</v>
       </c>
       <c r="D8" s="7">
-        <v>534096</v>
+        <v>1177011</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>269</v>
+        <v>174</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>327</v>
+        <v>200</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="H8" s="7">
-        <v>944</v>
+        <v>1434</v>
       </c>
       <c r="I8" s="7">
-        <v>569671</v>
+        <v>914069</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>46</v>
+        <v>279</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="M8" s="7">
-        <v>1532</v>
+        <v>2377</v>
       </c>
       <c r="N8" s="7">
-        <v>1103767</v>
+        <v>2091081</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>282</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>331</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,10 +4512,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549302</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5190,10 +4527,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5205,10 +4542,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1142264</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5228,49 +4565,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>16456</v>
+        <v>16045</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="H10" s="7">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="I10" s="7">
-        <v>47345</v>
+        <v>32086</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="M10" s="7">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="N10" s="7">
-        <v>63801</v>
+        <v>48131</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>338</v>
+        <v>143</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>339</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,49 +4616,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>943</v>
+        <v>656</v>
       </c>
       <c r="D11" s="7">
-        <v>1022792</v>
+        <v>687639</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="H11" s="7">
-        <v>1434</v>
+        <v>992</v>
       </c>
       <c r="I11" s="7">
-        <v>1012129</v>
+        <v>900714</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="M11" s="7">
-        <v>2377</v>
+        <v>1648</v>
       </c>
       <c r="N11" s="7">
-        <v>2034921</v>
+        <v>1588353</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>346</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>347</v>
+        <v>297</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>348</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,10 +4667,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>703684</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5345,10 +4682,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>932800</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5360,10 +4697,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1721</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1636484</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5377,55 +4714,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>16585</v>
+        <v>19562</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>350</v>
+        <v>299</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="H13" s="7">
+        <v>120</v>
+      </c>
+      <c r="I13" s="7">
+        <v>75072</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="7">
-        <v>34322</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>339</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="M13" s="7">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="N13" s="7">
-        <v>50907</v>
+        <v>94633</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>353</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,49 +4771,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>656</v>
+        <v>983</v>
       </c>
       <c r="D14" s="7">
-        <v>711116</v>
+        <v>907269</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>356</v>
+        <v>306</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>357</v>
+        <v>307</v>
       </c>
       <c r="H14" s="7">
-        <v>992</v>
+        <v>1439</v>
       </c>
       <c r="I14" s="7">
-        <v>839424</v>
+        <v>1016302</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>46</v>
+        <v>308</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>348</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
-        <v>1648</v>
+        <v>2422</v>
       </c>
       <c r="N14" s="7">
-        <v>1550540</v>
+        <v>1923572</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>360</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,10 +4822,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>727701</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5500,10 +4837,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>873746</v>
+        <v>1091374</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5515,10 +4852,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1721</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1601447</v>
+        <v>2018205</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5532,55 +4869,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="D16" s="7">
-        <v>20567</v>
+        <v>68876</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="H16" s="7">
-        <v>120</v>
+        <v>328</v>
       </c>
       <c r="I16" s="7">
-        <v>82217</v>
+        <v>181169</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>364</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="M16" s="7">
-        <v>143</v>
+        <v>417</v>
       </c>
       <c r="N16" s="7">
-        <v>102784</v>
+        <v>250045</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>366</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,49 +4926,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>983</v>
+        <v>3285</v>
       </c>
       <c r="D17" s="7">
-        <v>944836</v>
+        <v>3389454</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>368</v>
+        <v>317</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>369</v>
+        <v>318</v>
       </c>
       <c r="H17" s="7">
-        <v>1439</v>
+        <v>5031</v>
       </c>
       <c r="I17" s="7">
-        <v>1064086</v>
+        <v>3476533</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>370</v>
+        <v>319</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>371</v>
+        <v>320</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>372</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
-        <v>2422</v>
+        <v>8316</v>
       </c>
       <c r="N17" s="7">
-        <v>2008922</v>
+        <v>6865987</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>373</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,10 +4977,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3374</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3458330</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5655,10 +4992,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5359</v>
       </c>
       <c r="I18" s="7">
-        <v>1146303</v>
+        <v>3657702</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5670,10 +5007,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8733</v>
       </c>
       <c r="N18" s="7">
-        <v>2111706</v>
+        <v>7116032</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5686,171 +5023,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>89</v>
-      </c>
-      <c r="D19" s="7">
-        <v>71542</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="H19" s="7">
-        <v>328</v>
-      </c>
-      <c r="I19" s="7">
-        <v>195666</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="M19" s="7">
-        <v>417</v>
-      </c>
-      <c r="N19" s="7">
-        <v>267209</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3285</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3312094</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5031</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3607196</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8316</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6919289</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3374</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3383636</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5359</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3802862</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8733</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7186498</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
